--- a/5/1/1/1/Componentes M3 - saldos 2021 - Diaria.xlsx
+++ b/5/1/1/1/Componentes M3 - saldos 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
   <si>
     <t>Serie</t>
   </si>
@@ -401,6 +401,69 @@
   </si>
   <si>
     <t>30-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>02-07-2021</t>
+  </si>
+  <si>
+    <t>05-07-2021</t>
+  </si>
+  <si>
+    <t>06-07-2021</t>
+  </si>
+  <si>
+    <t>07-07-2021</t>
+  </si>
+  <si>
+    <t>08-07-2021</t>
+  </si>
+  <si>
+    <t>09-07-2021</t>
+  </si>
+  <si>
+    <t>12-07-2021</t>
+  </si>
+  <si>
+    <t>13-07-2021</t>
+  </si>
+  <si>
+    <t>14-07-2021</t>
+  </si>
+  <si>
+    <t>15-07-2021</t>
+  </si>
+  <si>
+    <t>19-07-2021</t>
+  </si>
+  <si>
+    <t>20-07-2021</t>
+  </si>
+  <si>
+    <t>21-07-2021</t>
+  </si>
+  <si>
+    <t>22-07-2021</t>
+  </si>
+  <si>
+    <t>23-07-2021</t>
+  </si>
+  <si>
+    <t>26-07-2021</t>
+  </si>
+  <si>
+    <t>27-07-2021</t>
+  </si>
+  <si>
+    <t>28-07-2021</t>
+  </si>
+  <si>
+    <t>29-07-2021</t>
+  </si>
+  <si>
+    <t>30-07-2021</t>
   </si>
 </sst>
 </file>
@@ -758,7 +821,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E125"/>
+  <dimension ref="A1:E146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2889,6 +2952,363 @@
         <v>25015</v>
       </c>
     </row>
+    <row r="126" spans="1:5">
+      <c r="A126" t="s">
+        <v>129</v>
+      </c>
+      <c r="B126">
+        <v>11601</v>
+      </c>
+      <c r="C126">
+        <v>35270</v>
+      </c>
+      <c r="D126">
+        <v>215</v>
+      </c>
+      <c r="E126">
+        <v>25235</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" t="s">
+        <v>130</v>
+      </c>
+      <c r="B127">
+        <v>12197</v>
+      </c>
+      <c r="C127">
+        <v>35258</v>
+      </c>
+      <c r="D127">
+        <v>215</v>
+      </c>
+      <c r="E127">
+        <v>25114</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" t="s">
+        <v>131</v>
+      </c>
+      <c r="B128">
+        <v>13370</v>
+      </c>
+      <c r="C128">
+        <v>35341</v>
+      </c>
+      <c r="D128">
+        <v>215</v>
+      </c>
+      <c r="E128">
+        <v>25096</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" t="s">
+        <v>132</v>
+      </c>
+      <c r="B129">
+        <v>13496</v>
+      </c>
+      <c r="C129">
+        <v>35261</v>
+      </c>
+      <c r="D129">
+        <v>215</v>
+      </c>
+      <c r="E129">
+        <v>25308</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" t="s">
+        <v>133</v>
+      </c>
+      <c r="B130">
+        <v>14069</v>
+      </c>
+      <c r="C130">
+        <v>35248</v>
+      </c>
+      <c r="D130">
+        <v>215</v>
+      </c>
+      <c r="E130">
+        <v>25319</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" t="s">
+        <v>134</v>
+      </c>
+      <c r="B131">
+        <v>14475</v>
+      </c>
+      <c r="C131">
+        <v>34767</v>
+      </c>
+      <c r="D131">
+        <v>215</v>
+      </c>
+      <c r="E131">
+        <v>25366</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" t="s">
+        <v>135</v>
+      </c>
+      <c r="B132">
+        <v>15200</v>
+      </c>
+      <c r="C132">
+        <v>34705</v>
+      </c>
+      <c r="D132">
+        <v>215</v>
+      </c>
+      <c r="E132">
+        <v>25233</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" t="s">
+        <v>136</v>
+      </c>
+      <c r="B133">
+        <v>14384</v>
+      </c>
+      <c r="C133">
+        <v>35216</v>
+      </c>
+      <c r="D133">
+        <v>215</v>
+      </c>
+      <c r="E133">
+        <v>25447</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" t="s">
+        <v>137</v>
+      </c>
+      <c r="B134">
+        <v>14637</v>
+      </c>
+      <c r="C134">
+        <v>35182</v>
+      </c>
+      <c r="D134">
+        <v>215</v>
+      </c>
+      <c r="E134">
+        <v>25585</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" t="s">
+        <v>138</v>
+      </c>
+      <c r="B135">
+        <v>14820</v>
+      </c>
+      <c r="C135">
+        <v>35120</v>
+      </c>
+      <c r="D135">
+        <v>215</v>
+      </c>
+      <c r="E135">
+        <v>25480</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" t="s">
+        <v>139</v>
+      </c>
+      <c r="B136">
+        <v>13843</v>
+      </c>
+      <c r="C136">
+        <v>34690</v>
+      </c>
+      <c r="D136">
+        <v>215</v>
+      </c>
+      <c r="E136">
+        <v>25630</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
+        <v>140</v>
+      </c>
+      <c r="B137">
+        <v>14079</v>
+      </c>
+      <c r="C137">
+        <v>35361</v>
+      </c>
+      <c r="D137">
+        <v>215</v>
+      </c>
+      <c r="E137">
+        <v>25833</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" t="s">
+        <v>141</v>
+      </c>
+      <c r="B138">
+        <v>14964</v>
+      </c>
+      <c r="C138">
+        <v>35370</v>
+      </c>
+      <c r="D138">
+        <v>215</v>
+      </c>
+      <c r="E138">
+        <v>27818</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" t="s">
+        <v>142</v>
+      </c>
+      <c r="B139">
+        <v>15484</v>
+      </c>
+      <c r="C139">
+        <v>35408</v>
+      </c>
+      <c r="D139">
+        <v>215</v>
+      </c>
+      <c r="E139">
+        <v>27798</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" t="s">
+        <v>143</v>
+      </c>
+      <c r="B140">
+        <v>15342</v>
+      </c>
+      <c r="C140">
+        <v>35384</v>
+      </c>
+      <c r="D140">
+        <v>215</v>
+      </c>
+      <c r="E140">
+        <v>27840</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" t="s">
+        <v>144</v>
+      </c>
+      <c r="B141">
+        <v>14036</v>
+      </c>
+      <c r="C141">
+        <v>35488</v>
+      </c>
+      <c r="D141">
+        <v>215</v>
+      </c>
+      <c r="E141">
+        <v>27899</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" t="s">
+        <v>145</v>
+      </c>
+      <c r="B142">
+        <v>13663</v>
+      </c>
+      <c r="C142">
+        <v>35496</v>
+      </c>
+      <c r="D142">
+        <v>215</v>
+      </c>
+      <c r="E142">
+        <v>25678</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" t="s">
+        <v>146</v>
+      </c>
+      <c r="B143">
+        <v>13521</v>
+      </c>
+      <c r="C143">
+        <v>35536</v>
+      </c>
+      <c r="D143">
+        <v>215</v>
+      </c>
+      <c r="E143">
+        <v>26019</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" t="s">
+        <v>147</v>
+      </c>
+      <c r="B144">
+        <v>13689</v>
+      </c>
+      <c r="C144">
+        <v>35580</v>
+      </c>
+      <c r="D144">
+        <v>215</v>
+      </c>
+      <c r="E144">
+        <v>26056</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" t="s">
+        <v>148</v>
+      </c>
+      <c r="B145">
+        <v>13411</v>
+      </c>
+      <c r="C145">
+        <v>35528</v>
+      </c>
+      <c r="D145">
+        <v>215</v>
+      </c>
+      <c r="E145">
+        <v>26089</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" t="s">
+        <v>149</v>
+      </c>
+      <c r="B146">
+        <v>12671</v>
+      </c>
+      <c r="C146">
+        <v>35239</v>
+      </c>
+      <c r="D146">
+        <v>213</v>
+      </c>
+      <c r="E146">
+        <v>26787</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/1/1/1/Componentes M3 - saldos 2021 - Diaria.xlsx
+++ b/5/1/1/1/Componentes M3 - saldos 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
   <si>
     <t>Serie</t>
   </si>
@@ -464,6 +464,72 @@
   </si>
   <si>
     <t>30-07-2021</t>
+  </si>
+  <si>
+    <t>02-08-2021</t>
+  </si>
+  <si>
+    <t>03-08-2021</t>
+  </si>
+  <si>
+    <t>04-08-2021</t>
+  </si>
+  <si>
+    <t>05-08-2021</t>
+  </si>
+  <si>
+    <t>06-08-2021</t>
+  </si>
+  <si>
+    <t>09-08-2021</t>
+  </si>
+  <si>
+    <t>10-08-2021</t>
+  </si>
+  <si>
+    <t>11-08-2021</t>
+  </si>
+  <si>
+    <t>12-08-2021</t>
+  </si>
+  <si>
+    <t>13-08-2021</t>
+  </si>
+  <si>
+    <t>16-08-2021</t>
+  </si>
+  <si>
+    <t>17-08-2021</t>
+  </si>
+  <si>
+    <t>18-08-2021</t>
+  </si>
+  <si>
+    <t>19-08-2021</t>
+  </si>
+  <si>
+    <t>20-08-2021</t>
+  </si>
+  <si>
+    <t>23-08-2021</t>
+  </si>
+  <si>
+    <t>24-08-2021</t>
+  </si>
+  <si>
+    <t>25-08-2021</t>
+  </si>
+  <si>
+    <t>26-08-2021</t>
+  </si>
+  <si>
+    <t>27-08-2021</t>
+  </si>
+  <si>
+    <t>30-08-2021</t>
+  </si>
+  <si>
+    <t>31-08-2021</t>
   </si>
 </sst>
 </file>
@@ -821,7 +887,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E146"/>
+  <dimension ref="A1:E168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3309,6 +3375,380 @@
         <v>26787</v>
       </c>
     </row>
+    <row r="147" spans="1:5">
+      <c r="A147" t="s">
+        <v>150</v>
+      </c>
+      <c r="B147">
+        <v>13264</v>
+      </c>
+      <c r="C147">
+        <v>35382</v>
+      </c>
+      <c r="D147">
+        <v>214</v>
+      </c>
+      <c r="E147">
+        <v>26761</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" t="s">
+        <v>151</v>
+      </c>
+      <c r="B148">
+        <v>13708</v>
+      </c>
+      <c r="C148">
+        <v>35426</v>
+      </c>
+      <c r="D148">
+        <v>214</v>
+      </c>
+      <c r="E148">
+        <v>26814</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" t="s">
+        <v>152</v>
+      </c>
+      <c r="B149">
+        <v>12861</v>
+      </c>
+      <c r="C149">
+        <v>35467</v>
+      </c>
+      <c r="D149">
+        <v>214</v>
+      </c>
+      <c r="E149">
+        <v>26640</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" t="s">
+        <v>153</v>
+      </c>
+      <c r="B150">
+        <v>13564</v>
+      </c>
+      <c r="C150">
+        <v>35570</v>
+      </c>
+      <c r="D150">
+        <v>214</v>
+      </c>
+      <c r="E150">
+        <v>26774</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" t="s">
+        <v>154</v>
+      </c>
+      <c r="B151">
+        <v>14283</v>
+      </c>
+      <c r="C151">
+        <v>35584</v>
+      </c>
+      <c r="D151">
+        <v>214</v>
+      </c>
+      <c r="E151">
+        <v>27169</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" t="s">
+        <v>155</v>
+      </c>
+      <c r="B152">
+        <v>13707</v>
+      </c>
+      <c r="C152">
+        <v>35604</v>
+      </c>
+      <c r="D152">
+        <v>214</v>
+      </c>
+      <c r="E152">
+        <v>27341</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" t="s">
+        <v>156</v>
+      </c>
+      <c r="B153">
+        <v>13903</v>
+      </c>
+      <c r="C153">
+        <v>35616</v>
+      </c>
+      <c r="D153">
+        <v>214</v>
+      </c>
+      <c r="E153">
+        <v>27306</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" t="s">
+        <v>157</v>
+      </c>
+      <c r="B154">
+        <v>13642</v>
+      </c>
+      <c r="C154">
+        <v>35319</v>
+      </c>
+      <c r="D154">
+        <v>214</v>
+      </c>
+      <c r="E154">
+        <v>27527</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" t="s">
+        <v>158</v>
+      </c>
+      <c r="B155">
+        <v>14591</v>
+      </c>
+      <c r="C155">
+        <v>35248</v>
+      </c>
+      <c r="D155">
+        <v>214</v>
+      </c>
+      <c r="E155">
+        <v>27780</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" t="s">
+        <v>159</v>
+      </c>
+      <c r="B156">
+        <v>15328</v>
+      </c>
+      <c r="C156">
+        <v>35778</v>
+      </c>
+      <c r="D156">
+        <v>214</v>
+      </c>
+      <c r="E156">
+        <v>28038</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" t="s">
+        <v>160</v>
+      </c>
+      <c r="B157">
+        <v>14656</v>
+      </c>
+      <c r="C157">
+        <v>35746</v>
+      </c>
+      <c r="D157">
+        <v>214</v>
+      </c>
+      <c r="E157">
+        <v>28184</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" t="s">
+        <v>161</v>
+      </c>
+      <c r="B158">
+        <v>15204</v>
+      </c>
+      <c r="C158">
+        <v>35776</v>
+      </c>
+      <c r="D158">
+        <v>214</v>
+      </c>
+      <c r="E158">
+        <v>28239</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" t="s">
+        <v>162</v>
+      </c>
+      <c r="B159">
+        <v>15282</v>
+      </c>
+      <c r="C159">
+        <v>35753</v>
+      </c>
+      <c r="D159">
+        <v>214</v>
+      </c>
+      <c r="E159">
+        <v>28280</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" t="s">
+        <v>163</v>
+      </c>
+      <c r="B160">
+        <v>15399</v>
+      </c>
+      <c r="C160">
+        <v>35775</v>
+      </c>
+      <c r="D160">
+        <v>214</v>
+      </c>
+      <c r="E160">
+        <v>28314</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" t="s">
+        <v>164</v>
+      </c>
+      <c r="B161">
+        <v>16045</v>
+      </c>
+      <c r="C161">
+        <v>36137</v>
+      </c>
+      <c r="D161">
+        <v>214</v>
+      </c>
+      <c r="E161">
+        <v>28064</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" t="s">
+        <v>165</v>
+      </c>
+      <c r="B162">
+        <v>15353</v>
+      </c>
+      <c r="C162">
+        <v>36184</v>
+      </c>
+      <c r="D162">
+        <v>114</v>
+      </c>
+      <c r="E162">
+        <v>27957</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" t="s">
+        <v>166</v>
+      </c>
+      <c r="B163">
+        <v>15385</v>
+      </c>
+      <c r="C163">
+        <v>36178</v>
+      </c>
+      <c r="D163">
+        <v>114</v>
+      </c>
+      <c r="E163">
+        <v>27982</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" t="s">
+        <v>167</v>
+      </c>
+      <c r="B164">
+        <v>17016</v>
+      </c>
+      <c r="C164">
+        <v>36147</v>
+      </c>
+      <c r="D164">
+        <v>114</v>
+      </c>
+      <c r="E164">
+        <v>28006</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" t="s">
+        <v>168</v>
+      </c>
+      <c r="B165">
+        <v>15870</v>
+      </c>
+      <c r="C165">
+        <v>36160</v>
+      </c>
+      <c r="D165">
+        <v>114</v>
+      </c>
+      <c r="E165">
+        <v>27664</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" t="s">
+        <v>169</v>
+      </c>
+      <c r="B166">
+        <v>16045</v>
+      </c>
+      <c r="C166">
+        <v>36142</v>
+      </c>
+      <c r="D166">
+        <v>114</v>
+      </c>
+      <c r="E166">
+        <v>27825</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" t="s">
+        <v>170</v>
+      </c>
+      <c r="B167">
+        <v>16155</v>
+      </c>
+      <c r="C167">
+        <v>36210</v>
+      </c>
+      <c r="D167">
+        <v>114</v>
+      </c>
+      <c r="E167">
+        <v>27850</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" t="s">
+        <v>171</v>
+      </c>
+      <c r="B168">
+        <v>15608</v>
+      </c>
+      <c r="C168">
+        <v>36238</v>
+      </c>
+      <c r="D168">
+        <v>114</v>
+      </c>
+      <c r="E168">
+        <v>28096</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/1/1/1/Componentes M3 - saldos 2021 - Diaria.xlsx
+++ b/5/1/1/1/Componentes M3 - saldos 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
   <si>
     <t>Serie</t>
   </si>
@@ -530,6 +530,69 @@
   </si>
   <si>
     <t>31-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>02-09-2021</t>
+  </si>
+  <si>
+    <t>03-09-2021</t>
+  </si>
+  <si>
+    <t>06-09-2021</t>
+  </si>
+  <si>
+    <t>07-09-2021</t>
+  </si>
+  <si>
+    <t>08-09-2021</t>
+  </si>
+  <si>
+    <t>09-09-2021</t>
+  </si>
+  <si>
+    <t>10-09-2021</t>
+  </si>
+  <si>
+    <t>13-09-2021</t>
+  </si>
+  <si>
+    <t>14-09-2021</t>
+  </si>
+  <si>
+    <t>15-09-2021</t>
+  </si>
+  <si>
+    <t>16-09-2021</t>
+  </si>
+  <si>
+    <t>20-09-2021</t>
+  </si>
+  <si>
+    <t>21-09-2021</t>
+  </si>
+  <si>
+    <t>22-09-2021</t>
+  </si>
+  <si>
+    <t>23-09-2021</t>
+  </si>
+  <si>
+    <t>24-09-2021</t>
+  </si>
+  <si>
+    <t>27-09-2021</t>
+  </si>
+  <si>
+    <t>28-09-2021</t>
+  </si>
+  <si>
+    <t>29-09-2021</t>
+  </si>
+  <si>
+    <t>30-09-2021</t>
   </si>
 </sst>
 </file>
@@ -887,7 +950,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E168"/>
+  <dimension ref="A1:E189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3749,6 +3812,363 @@
         <v>28096</v>
       </c>
     </row>
+    <row r="169" spans="1:5">
+      <c r="A169" t="s">
+        <v>172</v>
+      </c>
+      <c r="B169">
+        <v>10783</v>
+      </c>
+      <c r="C169">
+        <v>36586</v>
+      </c>
+      <c r="D169">
+        <v>115</v>
+      </c>
+      <c r="E169">
+        <v>27927</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" t="s">
+        <v>173</v>
+      </c>
+      <c r="B170">
+        <v>11578</v>
+      </c>
+      <c r="C170">
+        <v>36646</v>
+      </c>
+      <c r="D170">
+        <v>115</v>
+      </c>
+      <c r="E170">
+        <v>28267</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" t="s">
+        <v>174</v>
+      </c>
+      <c r="B171">
+        <v>12309</v>
+      </c>
+      <c r="C171">
+        <v>36684</v>
+      </c>
+      <c r="D171">
+        <v>115</v>
+      </c>
+      <c r="E171">
+        <v>28479</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" t="s">
+        <v>175</v>
+      </c>
+      <c r="B172">
+        <v>12525</v>
+      </c>
+      <c r="C172">
+        <v>36706</v>
+      </c>
+      <c r="D172">
+        <v>115</v>
+      </c>
+      <c r="E172">
+        <v>28693</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" t="s">
+        <v>176</v>
+      </c>
+      <c r="B173">
+        <v>12698</v>
+      </c>
+      <c r="C173">
+        <v>36735</v>
+      </c>
+      <c r="D173">
+        <v>115</v>
+      </c>
+      <c r="E173">
+        <v>28900</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" t="s">
+        <v>177</v>
+      </c>
+      <c r="B174">
+        <v>14578</v>
+      </c>
+      <c r="C174">
+        <v>36847</v>
+      </c>
+      <c r="D174">
+        <v>115</v>
+      </c>
+      <c r="E174">
+        <v>29054</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" t="s">
+        <v>178</v>
+      </c>
+      <c r="B175">
+        <v>15016</v>
+      </c>
+      <c r="C175">
+        <v>36387</v>
+      </c>
+      <c r="D175">
+        <v>115</v>
+      </c>
+      <c r="E175">
+        <v>28822</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" t="s">
+        <v>179</v>
+      </c>
+      <c r="B176">
+        <v>15597</v>
+      </c>
+      <c r="C176">
+        <v>36019</v>
+      </c>
+      <c r="D176">
+        <v>115</v>
+      </c>
+      <c r="E176">
+        <v>29005</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" t="s">
+        <v>180</v>
+      </c>
+      <c r="B177">
+        <v>16322</v>
+      </c>
+      <c r="C177">
+        <v>36936</v>
+      </c>
+      <c r="D177">
+        <v>115</v>
+      </c>
+      <c r="E177">
+        <v>29098</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" t="s">
+        <v>181</v>
+      </c>
+      <c r="B178">
+        <v>16442</v>
+      </c>
+      <c r="C178">
+        <v>36770</v>
+      </c>
+      <c r="D178">
+        <v>115</v>
+      </c>
+      <c r="E178">
+        <v>29728</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" t="s">
+        <v>182</v>
+      </c>
+      <c r="B179">
+        <v>15862</v>
+      </c>
+      <c r="C179">
+        <v>36874</v>
+      </c>
+      <c r="D179">
+        <v>115</v>
+      </c>
+      <c r="E179">
+        <v>29107</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" t="s">
+        <v>183</v>
+      </c>
+      <c r="B180">
+        <v>15869</v>
+      </c>
+      <c r="C180">
+        <v>36885</v>
+      </c>
+      <c r="D180">
+        <v>115</v>
+      </c>
+      <c r="E180">
+        <v>28956</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" t="s">
+        <v>184</v>
+      </c>
+      <c r="B181">
+        <v>15491</v>
+      </c>
+      <c r="C181">
+        <v>36868</v>
+      </c>
+      <c r="D181">
+        <v>115</v>
+      </c>
+      <c r="E181">
+        <v>29042</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" t="s">
+        <v>185</v>
+      </c>
+      <c r="B182">
+        <v>15837</v>
+      </c>
+      <c r="C182">
+        <v>36898</v>
+      </c>
+      <c r="D182">
+        <v>115</v>
+      </c>
+      <c r="E182">
+        <v>28785</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" t="s">
+        <v>186</v>
+      </c>
+      <c r="B183">
+        <v>15231</v>
+      </c>
+      <c r="C183">
+        <v>36982</v>
+      </c>
+      <c r="D183">
+        <v>115</v>
+      </c>
+      <c r="E183">
+        <v>29249</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" t="s">
+        <v>187</v>
+      </c>
+      <c r="B184">
+        <v>17119</v>
+      </c>
+      <c r="C184">
+        <v>36745</v>
+      </c>
+      <c r="D184">
+        <v>115</v>
+      </c>
+      <c r="E184">
+        <v>28904</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" t="s">
+        <v>188</v>
+      </c>
+      <c r="B185">
+        <v>17380</v>
+      </c>
+      <c r="C185">
+        <v>36853</v>
+      </c>
+      <c r="D185">
+        <v>115</v>
+      </c>
+      <c r="E185">
+        <v>29009</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" t="s">
+        <v>189</v>
+      </c>
+      <c r="B186">
+        <v>16878</v>
+      </c>
+      <c r="C186">
+        <v>36925</v>
+      </c>
+      <c r="D186">
+        <v>115</v>
+      </c>
+      <c r="E186">
+        <v>29004</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" t="s">
+        <v>190</v>
+      </c>
+      <c r="B187">
+        <v>16755</v>
+      </c>
+      <c r="C187">
+        <v>36939</v>
+      </c>
+      <c r="D187">
+        <v>115</v>
+      </c>
+      <c r="E187">
+        <v>28793</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" t="s">
+        <v>191</v>
+      </c>
+      <c r="B188">
+        <v>15192</v>
+      </c>
+      <c r="C188">
+        <v>37043</v>
+      </c>
+      <c r="D188">
+        <v>115</v>
+      </c>
+      <c r="E188">
+        <v>28896</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" t="s">
+        <v>192</v>
+      </c>
+      <c r="B189">
+        <v>15358</v>
+      </c>
+      <c r="C189">
+        <v>37008</v>
+      </c>
+      <c r="D189">
+        <v>115</v>
+      </c>
+      <c r="E189">
+        <v>29936</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
